--- a/biology/Médecine/Tachycardie/Tachycardie.xlsx
+++ b/biology/Médecine/Tachycardie/Tachycardie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La tachycardie (du grec ancien ταχύς / takhýs = rapide, et καρδία / kardía = cœur) correspond à un rythme cardiaque plus rapide que la normale.
@@ -513,15 +525,17 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rythme cardiaque pour un adulte au repos, hors sportifs de haut niveau, oscille généralement autour de 60 à 90 battements par minute[1] et dépend de facteurs multiples, le plus souvent sans rapport avec une maladie cardiaque : effort physique, anxiété, fièvre, prise de boissons alcooliques, etc.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rythme cardiaque pour un adulte au repos, hors sportifs de haut niveau, oscille généralement autour de 60 à 90 battements par minute et dépend de facteurs multiples, le plus souvent sans rapport avec une maladie cardiaque : effort physique, anxiété, fièvre, prise de boissons alcooliques, etc.
 On parle de tachycardie si : 
 nourrisson (jusqu'à 1 an) : &gt; 180/min ;
 petit enfant (2 à 5 ans) : &gt; 140/min ;
 grand enfant (6 à 12 ans) : &gt; 130/min ;
 adolescent (13 à 17 ans) : &gt; 110/min
-adulte : &gt; 100/min[2].
+adulte : &gt; 100/min.
 Le but normal d'une tachycardie est d'augmenter le débit cardiaque. Ce dernier est égal à la fréquence cardiaque multipliée par le volume d'éjection systolique, correspondant à la différence entre le volume télé-diastolique (« ventricule plein ») et le volume télé-systolique (« ventricule vide »).
 Le rythme cardiaque normal est piloté par le nœud sinusal, ensemble de cellules situées dans l'oreillette droite, se dépolarisant rythmiquement. Ce nœud est stimulé par l'adrénaline (système hormonal sympathique) et ralenti par le nerf vague. Une accélération trop importante de la fréquence cardiaque peut entraîner, paradoxalement, une baisse du débit, le ventricule n'ayant plus le temps de se remplir. Une accélération de la fréquence cardiaque va augmenter les besoins en oxygène du muscle cardiaque. Si son apport est insuffisant (en raison d'une atteinte des artères coronaires par exemple), cela peut entraîner une ischémie myocardique pouvant être responsable d'une insuffisance cardiaque ou d'une douleur thoracique du type angine de poitrine.
 Une tachycardie excessive et prolongée, par son accélération, peut être un phénomène dangereux. En effet, l'accélération du muscle cardiaque entraîne une demande supplémentaire en ressources. Or, la perfusion du muscle cardiaque se fait pendant la diastole. En augmentant le rythme, on diminue le temps de diastole et, donc, de perfusion alors que le muscle, au contraire, requiert plus de ressources. La tachycardie peut être ressentie comme des palpitations où le sujet ressent ses battements cardiaques comme désagréables. Elle est très souvent, au contraire, totalement asymptomatique (le sujet ne ressent rien et le diagnostic est fait par une autre personne, par la prise du pouls, par exemple). Le caractère asymptomatique ou non ne préjuge ni de la gravité ni de la cause.
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Causes non cardiaques
-Il s'agit d'une tachycardie sinusale, correspondant à une réponse normale du cœur à certaines stimulations. Elle est le plus souvent asymptomatique et relativement bien tolérée, sauf en cas de cardiopathie sous-jacente évoluée.
+          <t>Causes non cardiaques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il s'agit d'une tachycardie sinusale, correspondant à une réponse normale du cœur à certaines stimulations. Elle est le plus souvent asymptomatique et relativement bien tolérée, sauf en cas de cardiopathie sous-jacente évoluée.
 L'ECG montre :
 un rythme cardiaque accéléré (en général &gt; 100 par minute) ;
 une tachycardie régulière, permanente ;
@@ -579,14 +598,7 @@
 intoxication par un pesticide organophosphoré ou carbamate ;
 une consommation excessive et ponctuelle d'alcool (exemple du binge drinking) ;
 une consommation de toute drogue stimulante : amphétamine, crystal meth, MDMA, speed, crack, cocaïne, etc. ;
-il existe également des cas de tachycardie sinusale constitutionnelle (sans cause identifiée).
-Causes cardiaques (hors troubles de rythme)
-Toute baisse du débit cardiaque entraîne une accélération du rythme par sécrétion d'adrénaline afin d'essayer de rétablir un débit satisfaisant.
-C'est le cas :
-de la baisse de la pression artérielle (hypotension), dans les collapsus d'origine cardiaque ;
-en cas d'embolie pulmonaire ;
-de l'insuffisance cardiaque par un mécanisme d'adaptation.
-Tachycardie par troubles du rythme cardiaque</t>
+il existe également des cas de tachycardie sinusale constitutionnelle (sans cause identifiée).</t>
         </is>
       </c>
     </row>
@@ -611,10 +623,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Causes cardiaques (hors troubles de rythme)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Toute baisse du débit cardiaque entraîne une accélération du rythme par sécrétion d'adrénaline afin d'essayer de rétablir un débit satisfaisant.
+C'est le cas :
+de la baisse de la pression artérielle (hypotension), dans les collapsus d'origine cardiaque ;
+en cas d'embolie pulmonaire ;
+de l'insuffisance cardiaque par un mécanisme d'adaptation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tachycardie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tachycardie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les causes non cardiaques, il faut d'abord traiter la cause et non obligatoirement ralentir le rythme cardiaque par des médicaments.
 En cas de tachycardie mal tolérée ou invalidante, il est possible d'avoir recours à certains médicaments antiarythmiques, bêta-bloquants.
@@ -623,31 +677,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Tachycardie</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tachycardie</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Évocation culturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La Takicardie est le nom du pays imaginaire dirigé par le roi frappé de strabisme du Roi et l'oiseau.
 </t>
